--- a/docss/trend/finland/E_ataxy.xlsx
+++ b/docss/trend/finland/E_ataxy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\finland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1696,7 +1696,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="A1:E18"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,7 +1721,7 @@
         <v>2000</v>
       </c>
       <c r="B2" s="9">
-        <v>6.8752286024391651E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="C2" s="9">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>2001</v>
       </c>
       <c r="B3" s="9">
-        <v>7.3493554256856441E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="C3" s="9">
-        <v>3.3472802489995956E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
@@ -1751,13 +1751,13 @@
         <v>2002</v>
       </c>
       <c r="B4" s="9">
-        <v>0.10279038548469543</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="C4" s="9">
         <v>0</v>
       </c>
       <c r="D4" s="9">
-        <v>3.2498356886208057E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -1765,14 +1765,14 @@
       <c r="A5" s="9">
         <v>2003</v>
       </c>
-      <c r="B5" s="9">
-        <v>9.6030606888234615E-2</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="9">
-        <v>2.5018347427248955E-2</v>
+      <c r="D5">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -1780,13 +1780,13 @@
       <c r="A6" s="9">
         <v>2004</v>
       </c>
-      <c r="B6" s="9">
-        <v>4.8307333141565323E-2</v>
-      </c>
-      <c r="C6" s="9">
-        <v>2.996075339615345E-2</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="B6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.03</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -1795,13 +1795,13 @@
       <c r="A7" s="9">
         <v>2005</v>
       </c>
-      <c r="B7" s="9">
-        <v>7.9132656566798687E-2</v>
-      </c>
-      <c r="C7" s="9">
-        <v>2.9012277722358704E-2</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="B7">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="C7">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" s="9"/>
@@ -1810,14 +1810,14 @@
       <c r="A8" s="9">
         <v>2006</v>
       </c>
-      <c r="B8" s="9">
-        <v>5.2108624950051308E-2</v>
-      </c>
-      <c r="C8" s="9">
-        <v>6.4623069018125534E-2</v>
-      </c>
-      <c r="D8" s="9">
-        <v>2.6160206645727158E-2</v>
+      <c r="B8">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D8">
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E8" s="9"/>
     </row>
@@ -1825,14 +1825,14 @@
       <c r="A9" s="9">
         <v>2007</v>
       </c>
-      <c r="B9" s="9">
-        <v>0.1101276557892561</v>
-      </c>
-      <c r="C9" s="9">
-        <v>3.2463666051626205E-2</v>
-      </c>
-      <c r="D9" s="9">
-        <v>5.5597761645913124E-2</v>
+      <c r="B9">
+        <v>0.11</v>
+      </c>
+      <c r="C9">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D9">
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="E9" s="9"/>
     </row>
@@ -1840,14 +1840,14 @@
       <c r="A10" s="9">
         <v>2008</v>
       </c>
-      <c r="B10" s="9">
-        <v>0.12518240977078676</v>
-      </c>
-      <c r="C10" s="9">
-        <v>6.1580495908856392E-2</v>
-      </c>
-      <c r="D10" s="9">
-        <v>5.7107489556074142E-2</v>
+      <c r="B10">
+        <v>0.125</v>
+      </c>
+      <c r="C10">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D10">
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="E10" s="9"/>
     </row>
@@ -1855,14 +1855,14 @@
       <c r="A11" s="9">
         <v>2009</v>
       </c>
-      <c r="B11" s="9">
-        <v>0.17425913782790303</v>
-      </c>
-      <c r="C11" s="9">
-        <v>4.7133916988968849E-2</v>
-      </c>
-      <c r="D11" s="9">
-        <v>9.4987213611602783E-2</v>
+      <c r="B11">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="C11">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D11">
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E11" s="9"/>
     </row>
@@ -1870,14 +1870,14 @@
       <c r="A12" s="9">
         <v>2010</v>
       </c>
-      <c r="B12" s="9">
-        <v>0.14153164904564619</v>
-      </c>
-      <c r="C12" s="9">
-        <v>8.1993075087666512E-2</v>
-      </c>
-      <c r="D12" s="9">
-        <v>8.2991003058850765E-2</v>
+      <c r="B12">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="C12">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D12">
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E12" s="9"/>
     </row>
@@ -1885,14 +1885,14 @@
       <c r="A13" s="9">
         <v>2011</v>
       </c>
-      <c r="B13" s="9">
-        <v>0.10455258004367352</v>
-      </c>
-      <c r="C13" s="9">
-        <v>8.3156861364841461E-2</v>
-      </c>
-      <c r="D13" s="9">
-        <v>5.5570075288414955E-2</v>
+      <c r="B13">
+        <v>0.105</v>
+      </c>
+      <c r="C13">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D13">
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="E13" s="9"/>
     </row>
@@ -1900,13 +1900,13 @@
       <c r="A14" s="9">
         <v>2012</v>
       </c>
-      <c r="B14" s="9">
-        <v>5.2321086637675762E-2</v>
-      </c>
-      <c r="C14" s="9">
-        <v>5.6391088292002678E-2</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="B14">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C14">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" s="9"/>
@@ -1920,23 +1920,14 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
